--- a/TNR_PREJDD/RO/PREJDD.RO.FOU.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.FOU.xlsx
@@ -182,7 +182,7 @@
     <t>JM Lafarge</t>
   </si>
   <si>
-    <t>Initialisation</t>
+    <t>Création de l'onglet 001 pour la table FOU</t>
   </si>
   <si>
     <t/>
@@ -579,8 +579,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="29.88671875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="69.5546875" collapsed="false"/>
     <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="12.109375" collapsed="false"/>
     <col min="6" max="26" customWidth="true" width="10.6640625" collapsed="false"/>
@@ -608,7 +609,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="7">
-        <v>45005.6593653125</v>
+        <v>45005.726603958334</v>
       </c>
       <c r="B2" t="s" s="8">
         <v>52</v>
